--- a/Crew.SeedDataImporter/SeedData/seed-data.xlsx
+++ b/Crew.SeedDataImporter/SeedData/seed-data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,20 +452,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FirebaseUid</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Bio</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AvatarUrl</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CreatedAt</t>
         </is>
@@ -484,20 +494,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>alice@example.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>msO0VorfTgdZm9tBfesm60fdbzm1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Loves weekend trail runs and organizing community events.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://example.com/alice.jpg</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>45292.33333333334</v>
       </c>
     </row>
@@ -514,20 +534,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>bob@example.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kujZMzf2m4Wkz0iuJ1Xofpe0yb83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>User</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Enjoys long-distance running and photography.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://example.com/bob.jpg</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>45294.5</v>
       </c>
     </row>
